--- a/data/financial_statements/sofp/KMB.xlsx
+++ b/data/financial_statements/sofp/KMB.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Cash and Short Term Investments</t>
@@ -131,9 +251,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -186,12 +303,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -488,1615 +602,1654 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN37"/>
+  <dimension ref="A1:AO37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
+        <v>427000000</v>
+      </c>
+      <c r="C2">
         <v>362000000</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>311000000</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>493000000</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>270000000</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>286000000</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>306000000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>320000000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>303000000</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>1518000000</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>1448000000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>979000000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>442000000</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>416000000</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>534000000</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>491000000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>539000000</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>494000000</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>484000000</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>626000000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>616000000</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>655000000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>1051000000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>835000000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>923000000</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>884000000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>656000000</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>635000000</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>619000000</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>643000000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>603000000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>587000000</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>789000000</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>1431000000</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>1369000000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>1165000000</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>1054000000</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>1179000000</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>1160000000</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>1109000000</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B3">
+        <v>2280000000</v>
+      </c>
+      <c r="C3">
         <v>2333000000</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>2469000000</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>2516000000</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>2207000000</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>2399000000</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>2340000000</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>2199000000</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>2235000000</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>2125000000</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>2024000000</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>2519000000</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>2263000000</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>2306000000</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>2397000000</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>2377000000</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>2164000000</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>2308000000</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>2286000000</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>2470000000</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>2315000000</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>2360000000</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>2221000000</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>2224000000</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>2176000000</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>2222000000</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>2249000000</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>2255000000</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>2281000000</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>2284000000</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>2286000000</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>2244000000</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>2223000000</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>2542000000</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>2595000000</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>2618000000</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>2545000000</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>2502000000</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>2490000000</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>2717000000</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B4">
+        <v>2269000000</v>
+      </c>
+      <c r="C4">
         <v>2281000000</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>2278000000</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>2265000000</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>2239000000</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>2098000000</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>2110000000</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>1956000000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>1903000000</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>1787000000</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>1825000000</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>1539000000</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>1790000000</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>1779000000</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>1856000000</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>1857000000</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>1813000000</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>1770000000</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>1750000000</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>1778000000</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>1790000000</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>1748000000</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>1738000000</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>1728000000</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>1679000000</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>1736000000</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>1807000000</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>1902000000</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>1909000000</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>1883000000</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>1948000000</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>1893000000</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>1892000000</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>2281000000</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>2358000000</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>2285000000</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>2233000000</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>2245000000</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>2327000000</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>2364000000</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B5">
+        <v>753000000</v>
+      </c>
+      <c r="C5">
         <v>649000000</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>604000000</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>629000000</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>849000000</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>843000000</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>816000000</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>668000000</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>733000000</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>645000000</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>607000000</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>609000000</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>562000000</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>563000000</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>534000000</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>530000000</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>525000000</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>536000000</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>508000000</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>498000000</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>490000000</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>463000000</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>380000000</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>325000000</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>337000000</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>418000000</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>402000000</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>359000000</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>617000000</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>632000000</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>681000000</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>659000000</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>655000000</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>667000000</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>750000000</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>580000000</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>718000000</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>572000000</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>754000000</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>524000000</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B6">
+        <v>5729000000</v>
+      </c>
+      <c r="C6">
         <v>5625000000</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>5662000000</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>5903000000</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>5565000000</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>5626000000</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>5572000000</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>5143000000</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>5174000000</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>6075000000</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>5904000000</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>5646000000</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>5057000000</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>5064000000</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>5321000000</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>5255000000</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>5041000000</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>5108000000</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>5028000000</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>5372000000</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>5211000000</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>5226000000</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>5390000000</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>5112000000</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>5115000000</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>5260000000</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>5114000000</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>5151000000</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>5426000000</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>5442000000</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>5518000000</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>5383000000</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>5559000000</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>6921000000</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>7072000000</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>6648000000</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>6550000000</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>6894000000</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>6731000000</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>6714000000</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B7">
+        <v>7885000000</v>
+      </c>
+      <c r="C7">
         <v>7737000000</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>7931000000</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>8114000000</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>8097000000</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>7964000000</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>8018000000</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>7887000000</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>8042000000</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>7497000000</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>7366000000</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>7226000000</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>7450000000</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>7158000000</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>7207000000</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>7139000000</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>7159000000</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>7030000000</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>7046000000</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>7328000000</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>7436000000</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>7317000000</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>7246000000</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>7251000000</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>7169000000</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>7198000000</v>
-      </c>
-      <c r="AA7">
-        <v>7188000000</v>
       </c>
       <c r="AB7">
         <v>7188000000</v>
       </c>
       <c r="AC7">
+        <v>7188000000</v>
+      </c>
+      <c r="AD7">
         <v>7104000000</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>7066000000</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>7251000000</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>7160000000</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>7359000000</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>7692000000</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>7847000000</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>7841000000</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>7948000000</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>7871000000</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>7834000000</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>7979000000</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B8">
+        <v>238000000</v>
+      </c>
+      <c r="C8">
         <v>266000000</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>270000000</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>266000000</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>290000000</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>340000000</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>350000000</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>349000000</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>300000000</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>333000000</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>319000000</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>314000000</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>268000000</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>294000000</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>249000000</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>246000000</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>224000000</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>251000000</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>257000000</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>260000000</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>233000000</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>272000000</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>283000000</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>284000000</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>257000000</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>289000000</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>287000000</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <v>284000000</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <v>247000000</v>
       </c>
-      <c r="AD8">
+      <c r="AE8">
         <v>279000000</v>
       </c>
-      <c r="AE8">
+      <c r="AF8">
         <v>286000000</v>
       </c>
-      <c r="AF8">
+      <c r="AG8">
         <v>290000000</v>
       </c>
-      <c r="AG8">
+      <c r="AH8">
         <v>257000000</v>
       </c>
-      <c r="AH8">
+      <c r="AI8">
         <v>335000000</v>
       </c>
-      <c r="AI8">
+      <c r="AJ8">
         <v>349000000</v>
       </c>
-      <c r="AJ8">
+      <c r="AK8">
         <v>419000000</v>
       </c>
-      <c r="AK8">
+      <c r="AL8">
         <v>382000000</v>
-      </c>
-      <c r="AL8">
-        <v>429000000</v>
       </c>
       <c r="AM8">
         <v>429000000</v>
       </c>
       <c r="AN8">
+        <v>429000000</v>
+      </c>
+      <c r="AO8">
         <v>428000000</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="AL9">
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AM9">
         <v>0</v>
-      </c>
-      <c r="AM9">
-        <v>395000000</v>
       </c>
       <c r="AN9">
         <v>395000000</v>
       </c>
+      <c r="AO9">
+        <v>395000000</v>
+      </c>
     </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+    <row r="10" spans="1:41">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B10">
+        <v>2925000000</v>
+      </c>
+      <c r="C10">
         <v>2909000000</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>2995000000</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>3103000000</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>2650000000</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>2606000000</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>2637000000</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>2625000000</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>2727000000</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>1418000000</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>1401000000</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>1361000000</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>1496000000</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>1438000000</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>1478000000</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>1476000000</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>1474000000</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>1480000000</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>1504000000</v>
-      </c>
-      <c r="T10">
-        <v>1576000000</v>
       </c>
       <c r="U10">
         <v>1576000000</v>
       </c>
       <c r="V10">
+        <v>1576000000</v>
+      </c>
+      <c r="W10">
         <v>1581000000</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>1527000000</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>1528000000</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>1480000000</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>1518000000</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>1507000000</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>1498000000</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>1446000000</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>1435000000</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>1553000000</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>1538000000</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>1628000000</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>3344000000</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>3462000000</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>3442000000</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>3424000000</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <v>3480000000</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>3424000000</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>3562000000</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+    <row r="11" spans="1:41">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B11">
+        <v>1193000000</v>
+      </c>
+      <c r="C11">
         <v>1299000000</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>1256000000</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>1286000000</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>1235000000</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>1239000000</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>1250000000</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>1222000000</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>1280000000</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>1208000000</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>1183000000</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>1130000000</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>1012000000</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>1079000000</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>1092000000</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>1088000000</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>620000000</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>714000000</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>729000000</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>767000000</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>695000000</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>653000000</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>624000000</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>583000000</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>581000000</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>634000000</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>674000000</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>699000000</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>619000000</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>706000000</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>738000000</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>682000000</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>723000000</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>584000000</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>647000000</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>652000000</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>615000000</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <v>690000000</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>701000000</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>668000000</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B12">
+        <v>12241000000</v>
+      </c>
+      <c r="C12">
         <v>12211000000</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>12452000000</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>12769000000</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>12272000000</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>12149000000</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>12255000000</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>12083000000</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>12349000000</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>10456000000</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>10269000000</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>10031000000</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>10226000000</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>9969000000</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>10026000000</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>9949000000</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>9477000000</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>9475000000</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>9536000000</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>9931000000</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>9940000000</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>9823000000</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>9680000000</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>9646000000</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>9487000000</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>9639000000</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>9656000000</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>9669000000</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>9416000000</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>9486000000</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <v>9828000000</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <v>9670000000</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>9967000000</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <v>11955000000</v>
       </c>
-      <c r="AI12">
+      <c r="AJ12">
         <v>12305000000</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>12354000000</v>
       </c>
-      <c r="AK12">
+      <c r="AL12">
         <v>12369000000</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <v>12470000000</v>
       </c>
-      <c r="AM12">
+      <c r="AN12">
         <v>12783000000</v>
       </c>
-      <c r="AN12">
+      <c r="AO12">
         <v>13032000000</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B13">
+        <v>17970000000</v>
+      </c>
+      <c r="C13">
         <v>17836000000</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>18114000000</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>18672000000</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>17837000000</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>17775000000</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>17827000000</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>17226000000</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>17523000000</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>16531000000</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>16173000000</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>15677000000</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>15283000000</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>15033000000</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>15347000000</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>15204000000</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>14518000000</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>14583000000</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>14564000000</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>15303000000</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>15151000000</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>15049000000</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>15070000000</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>14758000000</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>14602000000</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>14899000000</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>14770000000</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>14820000000</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>14842000000</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>14928000000</v>
       </c>
-      <c r="AE13">
+      <c r="AF13">
         <v>15346000000</v>
       </c>
-      <c r="AF13">
+      <c r="AG13">
         <v>15053000000</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>15526000000</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <v>18876000000</v>
       </c>
-      <c r="AI13">
+      <c r="AJ13">
         <v>19377000000</v>
       </c>
-      <c r="AJ13">
+      <c r="AK13">
         <v>19002000000</v>
       </c>
-      <c r="AK13">
+      <c r="AL13">
         <v>18919000000</v>
       </c>
-      <c r="AL13">
+      <c r="AM13">
         <v>19364000000</v>
       </c>
-      <c r="AM13">
+      <c r="AN13">
         <v>19514000000</v>
       </c>
-      <c r="AN13">
+      <c r="AO13">
         <v>19746000000</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B14">
+        <v>3813000000</v>
+      </c>
+      <c r="C14">
         <v>3660000000</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>3701000000</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>3846000000</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>3840000000</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>3519000000</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>3337000000</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>3152000000</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>3336000000</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>2995000000</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>3032000000</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>2876000000</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>3055000000</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>2942000000</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>2993000000</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>3027000000</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>3190000000</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>2937000000</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>2802000000</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>2826000000</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>2834000000</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>2729000000</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>2629000000</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>2571000000</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>2609000000</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>2454000000</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>2448000000</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>2442000000</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>2612000000</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>2518000000</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>2599000000</v>
       </c>
-      <c r="AF14">
+      <c r="AG14">
         <v>2502000000</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>2616000000</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>2597000000</v>
       </c>
-      <c r="AI14">
+      <c r="AJ14">
         <v>2660000000</v>
       </c>
-      <c r="AJ14">
+      <c r="AK14">
         <v>2553000000</v>
       </c>
-      <c r="AK14">
+      <c r="AL14">
         <v>2598000000</v>
       </c>
-      <c r="AL14">
+      <c r="AM14">
         <v>2360000000</v>
       </c>
-      <c r="AM14">
+      <c r="AN14">
         <v>2469000000</v>
       </c>
-      <c r="AN14">
+      <c r="AO14">
         <v>2470000000</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B15">
         <v>388000000</v>
@@ -2108,400 +2261,406 @@
         <v>388000000</v>
       </c>
       <c r="E15">
-        <v>380000000</v>
+        <v>388000000</v>
       </c>
       <c r="F15">
         <v>380000000</v>
       </c>
       <c r="G15">
+        <v>380000000</v>
+      </c>
+      <c r="H15">
         <v>377000000</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>385000000</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>359000000</v>
-      </c>
-      <c r="J15">
-        <v>360000000</v>
       </c>
       <c r="K15">
         <v>360000000</v>
       </c>
       <c r="L15">
+        <v>360000000</v>
+      </c>
+      <c r="M15">
         <v>361000000</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>352000000</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>354000000</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>355000000</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>354000000</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>345000000</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>347000000</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>348000000</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>350000000</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>341000000</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>342000000</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>343000000</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>345000000</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>329000000</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>330000000</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>331000000</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>332000000</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>318000000</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>320000000</v>
-      </c>
-      <c r="AE15">
-        <v>321000000</v>
       </c>
       <c r="AF15">
         <v>321000000</v>
       </c>
       <c r="AG15">
+        <v>321000000</v>
+      </c>
+      <c r="AH15">
         <v>310000000</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>313000000</v>
       </c>
-      <c r="AI15">
+      <c r="AJ15">
         <v>315000000</v>
       </c>
-      <c r="AJ15">
+      <c r="AK15">
         <v>318000000</v>
       </c>
-      <c r="AK15">
+      <c r="AL15">
         <v>309000000</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <v>310000000</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <v>312000000</v>
       </c>
-      <c r="AN15">
+      <c r="AO15">
         <v>313000000</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B16">
+        <v>2289000000</v>
+      </c>
+      <c r="C16">
         <v>2190000000</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>2089000000</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>2054000000</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>2096000000</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>1972000000</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>2037000000</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>1883000000</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>2262000000</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>2230000000</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>2252000000</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>2008000000</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>1978000000</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>1931000000</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>1946000000</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>1916000000</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>1793000000</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>1735000000</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>1764000000</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>1899000000</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>1730000000</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>1752000000</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>1671000000</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>1620000000</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>1775000000</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>1731000000</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>1677000000</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>1618000000</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>1750000000</v>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <v>1903000000</v>
       </c>
-      <c r="AE16">
+      <c r="AF16">
         <v>1790000000</v>
       </c>
-      <c r="AF16">
+      <c r="AG16">
         <v>1751000000</v>
       </c>
-      <c r="AG16">
+      <c r="AH16">
         <v>1974000000</v>
       </c>
-      <c r="AH16">
+      <c r="AI16">
         <v>2071000000</v>
       </c>
-      <c r="AI16">
+      <c r="AJ16">
         <v>1978000000</v>
       </c>
-      <c r="AJ16">
+      <c r="AK16">
         <v>1955000000</v>
       </c>
-      <c r="AK16">
+      <c r="AL16">
         <v>2060000000</v>
       </c>
-      <c r="AL16">
+      <c r="AM16">
         <v>2023000000</v>
       </c>
-      <c r="AM16">
+      <c r="AN16">
         <v>2087000000</v>
       </c>
-      <c r="AN16">
+      <c r="AO16">
         <v>2160000000</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B17">
+        <v>844000000</v>
+      </c>
+      <c r="C17">
         <v>959000000</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>1031000000</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>969000000</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>433000000</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>1387000000</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>1493000000</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>1274000000</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>486000000</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>517000000</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>850000000</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>1238000000</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>1534000000</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>1555000000</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>1291000000</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>1900000000</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>1208000000</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>1786000000</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>1741000000</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>1599000000</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>953000000</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>589000000</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>1246000000</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>1328000000</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>1133000000</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>1205000000</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>772000000</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>999000000</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>1669000000</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <v>1460000000</v>
       </c>
-      <c r="AE17">
+      <c r="AF17">
         <v>2055000000</v>
       </c>
-      <c r="AF17">
+      <c r="AG17">
         <v>1612000000</v>
       </c>
-      <c r="AG17">
+      <c r="AH17">
         <v>1326000000</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <v>773000000</v>
       </c>
-      <c r="AI17">
+      <c r="AJ17">
         <v>591000000</v>
       </c>
-      <c r="AJ17">
+      <c r="AK17">
         <v>927000000</v>
       </c>
-      <c r="AK17">
+      <c r="AL17">
         <v>375000000</v>
       </c>
-      <c r="AL17">
+      <c r="AM17">
         <v>1087000000</v>
       </c>
-      <c r="AM17">
+      <c r="AN17">
         <v>1302000000</v>
       </c>
-      <c r="AN17">
+      <c r="AO17">
         <v>1908000000</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18">
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18">
         <v>2578000000</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>2477000000</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>2442000000</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>2023000000</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>2352000000</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>2414000000</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>2268000000</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>2156000000</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>2590000000</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>2612000000</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>2369000000</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>1969000000</v>
-      </c>
-      <c r="AH18">
-        <v>506000000</v>
       </c>
       <c r="AI18">
         <v>506000000</v>
@@ -2512,492 +2671,507 @@
       <c r="AK18">
         <v>506000000</v>
       </c>
+      <c r="AL18">
+        <v>506000000</v>
+      </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B19">
+        <v>7334000000</v>
+      </c>
+      <c r="C19">
         <v>7197000000</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>7209000000</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>7257000000</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>6749000000</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>7258000000</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>7244000000</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>6694000000</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>6443000000</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>6102000000</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>6494000000</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>6483000000</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>6919000000</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>6782000000</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>6585000000</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>7197000000</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>6536000000</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>6805000000</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>6655000000</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>6674000000</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>5858000000</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>5412000000</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>5889000000</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>5864000000</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>5846000000</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>5720000000</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>5228000000</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <v>5391000000</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <v>6349000000</v>
       </c>
-      <c r="AD19">
+      <c r="AE19">
         <v>6201000000</v>
       </c>
-      <c r="AE19">
+      <c r="AF19">
         <v>6765000000</v>
       </c>
-      <c r="AF19">
+      <c r="AG19">
         <v>6186000000</v>
       </c>
-      <c r="AG19">
+      <c r="AH19">
         <v>6226000000</v>
       </c>
-      <c r="AH19">
+      <c r="AI19">
         <v>6260000000</v>
       </c>
-      <c r="AI19">
+      <c r="AJ19">
         <v>6050000000</v>
       </c>
-      <c r="AJ19">
+      <c r="AK19">
         <v>6259000000</v>
       </c>
-      <c r="AK19">
+      <c r="AL19">
         <v>5848000000</v>
       </c>
-      <c r="AL19">
+      <c r="AM19">
         <v>5780000000</v>
       </c>
-      <c r="AM19">
+      <c r="AN19">
         <v>6170000000</v>
       </c>
-      <c r="AN19">
+      <c r="AO19">
         <v>6851000000</v>
       </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B20">
+        <v>7578000000</v>
+      </c>
+      <c r="C20">
         <v>7628000000</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>7698000000</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>8101000000</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>8141000000</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>7555000000</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>7591000000</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>7548000000</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>7878000000</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>7851000000</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>7223000000</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>7210000000</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>6213000000</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>6198000000</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>6701000000</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>5990000000</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>6247000000</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>5739000000</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>5746000000</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>6081000000</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>6472000000</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>7057000000</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>6777000000</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <v>6425000000</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>6439000000</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>6443000000</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>6905000000</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <v>6904000000</v>
       </c>
-      <c r="AC20">
+      <c r="AD20">
         <v>6106000000</v>
       </c>
-      <c r="AD20">
+      <c r="AE20">
         <v>6125000000</v>
       </c>
-      <c r="AE20">
+      <c r="AF20">
         <v>5544000000</v>
       </c>
-      <c r="AF20">
+      <c r="AG20">
         <v>6119000000</v>
       </c>
-      <c r="AG20">
+      <c r="AH20">
         <v>5630000000</v>
       </c>
-      <c r="AH20">
+      <c r="AI20">
         <v>5633000000</v>
       </c>
-      <c r="AI20">
+      <c r="AJ20">
         <v>5964000000</v>
       </c>
-      <c r="AJ20">
+      <c r="AK20">
         <v>5385000000</v>
       </c>
-      <c r="AK20">
+      <c r="AL20">
         <v>5386000000</v>
       </c>
-      <c r="AL20">
+      <c r="AM20">
         <v>5388000000</v>
       </c>
-      <c r="AM20">
+      <c r="AN20">
         <v>5387000000</v>
       </c>
-      <c r="AN20">
+      <c r="AO20">
         <v>4571000000</v>
       </c>
     </row>
-    <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B21">
+        <v>654000000</v>
+      </c>
+      <c r="C21">
         <v>837000000</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>829000000</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>797000000</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>809000000</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>869000000</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>875000000</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>839000000</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>864000000</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>873000000</v>
-      </c>
-      <c r="K21">
-        <v>859000000</v>
       </c>
       <c r="L21">
         <v>859000000</v>
       </c>
       <c r="M21">
+        <v>859000000</v>
+      </c>
+      <c r="N21">
         <v>897000000</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>881000000</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>889000000</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>922000000</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>931000000</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>993000000</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>1091000000</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>1152000000</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>1184000000</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>1285000000</v>
-      </c>
-      <c r="W21">
-        <v>1278000000</v>
       </c>
       <c r="X21">
         <v>1278000000</v>
       </c>
       <c r="Y21">
+        <v>1278000000</v>
+      </c>
+      <c r="Z21">
         <v>1301000000</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>1195000000</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <v>1192000000</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <v>1167000000</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <v>1137000000</v>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <v>1312000000</v>
       </c>
-      <c r="AE21">
+      <c r="AF21">
         <v>1186000000</v>
       </c>
-      <c r="AF21">
+      <c r="AG21">
         <v>1286000000</v>
       </c>
-      <c r="AG21">
+      <c r="AH21">
         <v>1693000000</v>
       </c>
-      <c r="AH21">
+      <c r="AI21">
         <v>1090000000</v>
       </c>
-      <c r="AI21">
+      <c r="AJ21">
         <v>1118000000</v>
       </c>
-      <c r="AJ21">
+      <c r="AK21">
         <v>1133000000</v>
       </c>
-      <c r="AK21">
+      <c r="AL21">
         <v>1312000000</v>
       </c>
-      <c r="AL21">
+      <c r="AM21">
         <v>1725000000</v>
       </c>
-      <c r="AM21">
+      <c r="AN21">
         <v>1730000000</v>
       </c>
-      <c r="AN21">
+      <c r="AO21">
         <v>1868000000</v>
       </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+    <row r="22" spans="1:41">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B22">
+        <v>647000000</v>
+      </c>
+      <c r="C22">
         <v>636000000</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>703000000</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>687000000</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>694000000</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>701000000</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>665000000</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>698000000</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>723000000</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>500000000</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>527000000</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>512000000</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>511000000</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>506000000</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>513000000</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>496000000</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>458000000</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>504000000</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>467000000</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>421000000</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>395000000</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>434000000</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>441000000</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>457000000</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>532000000</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>594000000</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>626000000</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>594000000</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>766000000</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>626000000</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <v>698000000</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <v>663000000</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <v>587000000</v>
       </c>
-      <c r="AH22">
+      <c r="AI22">
         <v>902000000</v>
       </c>
-      <c r="AI22">
+      <c r="AJ22">
         <v>926000000</v>
       </c>
-      <c r="AJ22">
+      <c r="AK22">
         <v>894000000</v>
       </c>
-      <c r="AK22">
+      <c r="AL22">
         <v>817000000</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+    <row r="23" spans="1:41">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B23">
-        <v>260000000</v>
+        <v>258000000</v>
       </c>
       <c r="C23">
         <v>260000000</v>
@@ -3006,10 +3180,10 @@
         <v>260000000</v>
       </c>
       <c r="E23">
+        <v>260000000</v>
+      </c>
+      <c r="F23">
         <v>26000000</v>
-      </c>
-      <c r="F23">
-        <v>28000000</v>
       </c>
       <c r="G23">
         <v>28000000</v>
@@ -3021,7 +3195,7 @@
         <v>28000000</v>
       </c>
       <c r="J23">
-        <v>29000000</v>
+        <v>28000000</v>
       </c>
       <c r="K23">
         <v>29000000</v>
@@ -3033,19 +3207,19 @@
         <v>29000000</v>
       </c>
       <c r="N23">
-        <v>38000000</v>
+        <v>29000000</v>
       </c>
       <c r="O23">
         <v>38000000</v>
       </c>
       <c r="P23">
-        <v>64000000</v>
+        <v>38000000</v>
       </c>
       <c r="Q23">
         <v>64000000</v>
       </c>
       <c r="R23">
-        <v>61000000</v>
+        <v>64000000</v>
       </c>
       <c r="S23">
         <v>61000000</v>
@@ -3057,7 +3231,7 @@
         <v>61000000</v>
       </c>
       <c r="V23">
-        <v>58000000</v>
+        <v>61000000</v>
       </c>
       <c r="W23">
         <v>58000000</v>
@@ -3069,7 +3243,7 @@
         <v>58000000</v>
       </c>
       <c r="Z23">
-        <v>64000000</v>
+        <v>58000000</v>
       </c>
       <c r="AA23">
         <v>64000000</v>
@@ -3081,7 +3255,7 @@
         <v>64000000</v>
       </c>
       <c r="AD23">
-        <v>72000000</v>
+        <v>64000000</v>
       </c>
       <c r="AE23">
         <v>72000000</v>
@@ -3105,7 +3279,7 @@
         <v>72000000</v>
       </c>
       <c r="AL23">
-        <v>549000000</v>
+        <v>72000000</v>
       </c>
       <c r="AM23">
         <v>549000000</v>
@@ -3113,444 +3287,453 @@
       <c r="AN23">
         <v>549000000</v>
       </c>
+      <c r="AO23">
+        <v>549000000</v>
+      </c>
     </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+    <row r="24" spans="1:41">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B24">
+        <v>799000000</v>
+      </c>
+      <c r="C24">
         <v>695000000</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>673000000</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>716000000</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>681000000</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>657000000</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>666000000</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>673000000</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>718000000</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>599000000</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>546000000</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>538000000</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>520000000</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>540000000</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>571000000</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>617000000</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>328000000</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>369000000</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>366000000</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>359000000</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>299000000</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>305000000</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>296000000</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>314000000</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>309000000</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>332000000</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>331000000</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>371000000</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>380000000</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <v>316000000</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <v>337000000</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <v>315000000</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>319000000</v>
       </c>
-      <c r="AH24">
+      <c r="AI24">
         <v>371000000</v>
       </c>
-      <c r="AI24">
+      <c r="AJ24">
         <v>351000000</v>
       </c>
-      <c r="AJ24">
+      <c r="AK24">
         <v>334000000</v>
       </c>
-      <c r="AK24">
+      <c r="AL24">
         <v>344000000</v>
       </c>
-      <c r="AL24">
+      <c r="AM24">
         <v>946000000</v>
       </c>
-      <c r="AM24">
+      <c r="AN24">
         <v>1018000000</v>
       </c>
-      <c r="AN24">
+      <c r="AO24">
         <v>922000000</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+    <row r="25" spans="1:41">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B25">
+        <v>9936000000</v>
+      </c>
+      <c r="C25">
         <v>10056000000</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>10163000000</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>10561000000</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>10351000000</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>9810000000</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>9825000000</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>9786000000</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>10211000000</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>9852000000</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>9184000000</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>9148000000</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>8170000000</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>8163000000</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>8712000000</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>8089000000</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>8028000000</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>7666000000</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>7731000000</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>8074000000</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>8411000000</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>9139000000</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>8850000000</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>8532000000</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>8639000000</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>8628000000</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>9118000000</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>9100000000</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>8453000000</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>8451000000</v>
       </c>
-      <c r="AE25">
+      <c r="AF25">
         <v>7837000000</v>
       </c>
-      <c r="AF25">
+      <c r="AG25">
         <v>8455000000</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>8301000000</v>
       </c>
-      <c r="AH25">
+      <c r="AI25">
         <v>8068000000</v>
       </c>
-      <c r="AI25">
+      <c r="AJ25">
         <v>8431000000</v>
       </c>
-      <c r="AJ25">
+      <c r="AK25">
         <v>7818000000</v>
       </c>
-      <c r="AK25">
+      <c r="AL25">
         <v>7931000000</v>
       </c>
-      <c r="AL25">
+      <c r="AM25">
         <v>8608000000</v>
       </c>
-      <c r="AM25">
+      <c r="AN25">
         <v>8684000000</v>
       </c>
-      <c r="AN25">
+      <c r="AO25">
         <v>7910000000</v>
       </c>
     </row>
-    <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+    <row r="26" spans="1:41">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B26">
+        <v>17270000000</v>
+      </c>
+      <c r="C26">
         <v>17253000000</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>17372000000</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>17818000000</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>17100000000</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>17068000000</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>17069000000</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>16480000000</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>16654000000</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>15954000000</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>15678000000</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>15631000000</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>15089000000</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>14945000000</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>15297000000</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>15286000000</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>14564000000</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>14471000000</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>14386000000</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>14748000000</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>14269000000</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>14551000000</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>14739000000</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>14396000000</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>14485000000</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>14348000000</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>14346000000</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>14491000000</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>14802000000</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>14652000000</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>14602000000</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>14641000000</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>14527000000</v>
       </c>
-      <c r="AH26">
+      <c r="AI26">
         <v>14328000000</v>
       </c>
-      <c r="AI26">
+      <c r="AJ26">
         <v>14481000000</v>
       </c>
-      <c r="AJ26">
+      <c r="AK26">
         <v>14077000000</v>
       </c>
-      <c r="AK26">
+      <c r="AL26">
         <v>13779000000</v>
       </c>
-      <c r="AL26">
+      <c r="AM26">
         <v>14388000000</v>
       </c>
-      <c r="AM26">
+      <c r="AN26">
         <v>14854000000</v>
       </c>
-      <c r="AN26">
+      <c r="AO26">
         <v>14761000000</v>
       </c>
     </row>
-    <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27">
+    <row r="27" spans="1:41">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27">
         <v>633000000</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>598000000</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>599000000</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>605000000</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>614000000</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>627000000</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>658000000</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>657000000</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>610000000</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>554000000</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>559000000</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>556000000</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>535000000</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>510000000</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>548000000</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>594000000</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>697000000</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>609000000</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>632000000</v>
       </c>
-      <c r="AK27">
+      <c r="AL27">
         <v>594000000</v>
       </c>
     </row>
-    <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28">
-        <v>473000000</v>
+    <row r="28" spans="1:41">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="C28">
         <v>473000000</v>
@@ -3591,949 +3774,973 @@
       <c r="O28">
         <v>473000000</v>
       </c>
-      <c r="Q28">
+      <c r="P28">
         <v>473000000</v>
       </c>
-      <c r="U28">
+      <c r="R28">
         <v>473000000</v>
       </c>
-      <c r="Y28">
+      <c r="V28">
         <v>473000000</v>
       </c>
-      <c r="AC28">
+      <c r="Z28">
         <v>473000000</v>
       </c>
-      <c r="AG28">
+      <c r="AD28">
+        <v>473000000</v>
+      </c>
+      <c r="AH28">
         <v>536000000</v>
       </c>
-      <c r="AK28">
+      <c r="AL28">
         <v>536000000</v>
       </c>
     </row>
-    <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29">
+    <row r="29" spans="1:41">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29">
         <v>8086000000</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>8022000000</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>7988000000</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>7858000000</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>7883000000</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>7798000000</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>7764000000</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>7567000000</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>7395000000</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>7299000000</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>6978000000</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>6686000000</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>6485000000</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>6170000000</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>5947000000</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>5769000000</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>5831000000</v>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <v>4994000000</v>
       </c>
-      <c r="AG29">
+      <c r="AH29">
         <v>8470000000</v>
       </c>
-      <c r="AK29">
+      <c r="AL29">
         <v>9714000000</v>
       </c>
     </row>
-    <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30">
+    <row r="30" spans="1:41">
+      <c r="A30" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30">
         <v>5126000000</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>5111000000</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>5175000000</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>5183000000</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>5191000000</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>5159000000</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>5050000000</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>4899000000</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>4661000000</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>4545000000</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>4562000000</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>4454000000</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>4222000000</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>4062000000</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>3956000000</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>3288000000</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>3629000000</v>
       </c>
-      <c r="AC30">
+      <c r="AD30">
         <v>2972000000</v>
       </c>
-      <c r="AG30">
+      <c r="AH30">
         <v>5597000000</v>
       </c>
-      <c r="AK30">
+      <c r="AL30">
         <v>3746000000</v>
       </c>
     </row>
-    <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+    <row r="31" spans="1:41">
+      <c r="A31" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B31">
+        <v>153000000</v>
+      </c>
+      <c r="C31">
         <v>583000000</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>742000000</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>854000000</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>737000000</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>707000000</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>758000000</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>746000000</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>869000000</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>577000000</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>495000000</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>46000000</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>194000000</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>88000000</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>50000000</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>-46000000</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>882000000</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>117000000</v>
       </c>
-      <c r="AC31">
+      <c r="AD31">
         <v>40000000</v>
       </c>
-      <c r="AG31">
+      <c r="AH31">
         <v>999000000</v>
       </c>
-      <c r="AK31">
+      <c r="AL31">
         <v>5140000000</v>
       </c>
     </row>
-    <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+    <row r="32" spans="1:41">
+      <c r="A32" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B32">
+        <v>700000000</v>
+      </c>
+      <c r="C32">
         <v>583000000</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>742000000</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>854000000</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>737000000</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>707000000</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>758000000</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>746000000</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>869000000</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>577000000</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>495000000</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>46000000</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>194000000</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>88000000</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>50000000</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <v>-82000000</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>-46000000</v>
       </c>
-      <c r="R32">
+      <c r="S32">
         <v>112000000</v>
       </c>
-      <c r="S32">
+      <c r="T32">
         <v>178000000</v>
       </c>
-      <c r="T32">
+      <c r="U32">
         <v>555000000</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <v>882000000</v>
       </c>
-      <c r="V32">
+      <c r="W32">
         <v>498000000</v>
       </c>
-      <c r="W32">
+      <c r="X32">
         <v>331000000</v>
       </c>
-      <c r="X32">
+      <c r="Y32">
         <v>362000000</v>
       </c>
-      <c r="Y32">
+      <c r="Z32">
         <v>117000000</v>
       </c>
-      <c r="Z32">
+      <c r="AA32">
         <v>551000000</v>
       </c>
-      <c r="AA32">
+      <c r="AB32">
         <v>424000000</v>
       </c>
-      <c r="AB32">
+      <c r="AC32">
         <v>329000000</v>
       </c>
-      <c r="AC32">
+      <c r="AD32">
         <v>40000000</v>
       </c>
-      <c r="AD32">
+      <c r="AE32">
         <v>276000000</v>
       </c>
-      <c r="AE32">
+      <c r="AF32">
         <v>744000000</v>
       </c>
-      <c r="AF32">
+      <c r="AG32">
         <v>412000000</v>
       </c>
-      <c r="AG32">
+      <c r="AH32">
         <v>999000000</v>
       </c>
-      <c r="AH32">
+      <c r="AI32">
         <v>4548000000</v>
       </c>
-      <c r="AI32">
+      <c r="AJ32">
         <v>4896000000</v>
       </c>
-      <c r="AJ32">
+      <c r="AK32">
         <v>4925000000</v>
       </c>
-      <c r="AK32">
+      <c r="AL32">
         <v>5140000000</v>
       </c>
-      <c r="AL32">
+      <c r="AM32">
         <v>4976000000</v>
       </c>
-      <c r="AM32">
+      <c r="AN32">
         <v>4660000000</v>
       </c>
-      <c r="AN32">
+      <c r="AO32">
         <v>4985000000</v>
       </c>
     </row>
-    <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+    <row r="33" spans="1:41">
+      <c r="A33" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B33">
+        <v>17970000000</v>
+      </c>
+      <c r="C33">
         <v>17836000000</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>18114000000</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>18672000000</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>17837000000</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>17775000000</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>17827000000</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>17226000000</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>17523000000</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>16531000000</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>16173000000</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>15677000000</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>15283000000</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <v>15033000000</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <v>15347000000</v>
       </c>
-      <c r="P33">
+      <c r="Q33">
         <v>15204000000</v>
       </c>
-      <c r="Q33">
+      <c r="R33">
         <v>14518000000</v>
       </c>
-      <c r="R33">
+      <c r="S33">
         <v>14583000000</v>
       </c>
-      <c r="S33">
+      <c r="T33">
         <v>14564000000</v>
       </c>
-      <c r="T33">
+      <c r="U33">
         <v>15303000000</v>
       </c>
-      <c r="U33">
+      <c r="V33">
         <v>15151000000</v>
       </c>
-      <c r="V33">
+      <c r="W33">
         <v>15049000000</v>
       </c>
-      <c r="W33">
+      <c r="X33">
         <v>15070000000</v>
       </c>
-      <c r="X33">
+      <c r="Y33">
         <v>14758000000</v>
       </c>
-      <c r="Y33">
+      <c r="Z33">
         <v>14602000000</v>
       </c>
-      <c r="Z33">
+      <c r="AA33">
         <v>14899000000</v>
       </c>
-      <c r="AA33">
+      <c r="AB33">
         <v>14770000000</v>
       </c>
-      <c r="AB33">
+      <c r="AC33">
         <v>14820000000</v>
       </c>
-      <c r="AC33">
+      <c r="AD33">
         <v>14842000000</v>
       </c>
-      <c r="AD33">
+      <c r="AE33">
         <v>14928000000</v>
       </c>
-      <c r="AE33">
+      <c r="AF33">
         <v>15346000000</v>
       </c>
-      <c r="AF33">
+      <c r="AG33">
         <v>15053000000</v>
       </c>
-      <c r="AG33">
+      <c r="AH33">
         <v>15526000000</v>
       </c>
-      <c r="AH33">
+      <c r="AI33">
         <v>18876000000</v>
       </c>
-      <c r="AI33">
+      <c r="AJ33">
         <v>19377000000</v>
       </c>
-      <c r="AJ33">
+      <c r="AK33">
         <v>19002000000</v>
       </c>
-      <c r="AK33">
+      <c r="AL33">
         <v>18919000000</v>
       </c>
-      <c r="AL33">
+      <c r="AM33">
         <v>19364000000</v>
       </c>
-      <c r="AM33">
+      <c r="AN33">
         <v>19514000000</v>
       </c>
-      <c r="AN33">
+      <c r="AO33">
         <v>19746000000</v>
       </c>
     </row>
-    <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
+    <row r="34" spans="1:41">
+      <c r="A34" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B34">
         <v>337500000</v>
       </c>
       <c r="C34">
+        <v>337500000</v>
+      </c>
+      <c r="D34">
         <v>337600000</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>337000000</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>336800000</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>336700000</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>336900000</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>337600000</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>338700000</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>340400000</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <v>341000000</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>340800000</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>341500000</v>
       </c>
-      <c r="N34">
+      <c r="O34">
         <v>343100000</v>
       </c>
-      <c r="O34">
+      <c r="P34">
         <v>344200000</v>
       </c>
-      <c r="P34">
+      <c r="Q34">
         <v>343795000</v>
       </c>
-      <c r="Q34">
+      <c r="R34">
         <v>345000000</v>
       </c>
-      <c r="R34">
+      <c r="S34">
         <v>346301000</v>
       </c>
-      <c r="S34">
+      <c r="T34">
         <v>347665000</v>
       </c>
-      <c r="T34">
+      <c r="U34">
         <v>349600000</v>
       </c>
-      <c r="U34">
+      <c r="V34">
         <v>351100000</v>
       </c>
-      <c r="V34">
+      <c r="W34">
         <v>351757000</v>
       </c>
-      <c r="W34">
+      <c r="X34">
         <v>353303000</v>
       </c>
-      <c r="X34">
+      <c r="Y34">
         <v>354928000</v>
       </c>
-      <c r="Y34">
+      <c r="Z34">
         <v>356600000</v>
       </c>
-      <c r="Z34">
+      <c r="AA34">
         <v>358155000</v>
       </c>
-      <c r="AA34">
+      <c r="AB34">
         <v>359636000</v>
       </c>
-      <c r="AB34">
+      <c r="AC34">
         <v>360128000</v>
       </c>
-      <c r="AC34">
+      <c r="AD34">
         <v>360900000</v>
       </c>
-      <c r="AD34">
+      <c r="AE34">
         <v>362994000</v>
       </c>
-      <c r="AE34">
+      <c r="AF34">
         <v>364300000</v>
       </c>
-      <c r="AF34">
+      <c r="AG34">
         <v>364099000</v>
       </c>
-      <c r="AG34">
+      <c r="AH34">
         <v>365300000</v>
       </c>
-      <c r="AH34">
+      <c r="AI34">
         <v>372455000</v>
       </c>
-      <c r="AI34">
+      <c r="AJ34">
         <v>374000000</v>
       </c>
-      <c r="AJ34">
+      <c r="AK34">
         <v>376791000</v>
       </c>
-      <c r="AK34">
+      <c r="AL34">
         <v>380800000</v>
       </c>
-      <c r="AL34">
+      <c r="AM34">
         <v>381639000</v>
       </c>
-      <c r="AM34">
+      <c r="AN34">
         <v>383041000</v>
       </c>
-      <c r="AN34">
+      <c r="AO34">
         <v>384604000</v>
       </c>
     </row>
-    <row r="35" spans="1:40">
-      <c r="A35" t="s">
-        <v>34</v>
+    <row r="35" spans="1:41">
+      <c r="A35" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B35">
+        <v>-2225000000</v>
+      </c>
+      <c r="C35">
         <v>-2326000000</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>-2253000000</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>-2249000000</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>-1913000000</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>-1899000000</v>
-      </c>
-      <c r="G35">
-        <v>-1879000000</v>
       </c>
       <c r="H35">
         <v>-1879000000</v>
       </c>
       <c r="I35">
+        <v>-1879000000</v>
+      </c>
+      <c r="J35">
         <v>-1858000000</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <v>-841000000</v>
       </c>
-      <c r="K35">
+      <c r="L35">
         <v>-906000000</v>
       </c>
-      <c r="L35">
+      <c r="M35">
         <v>-1315000000</v>
       </c>
-      <c r="M35">
+      <c r="N35">
         <v>-1302000000</v>
       </c>
-      <c r="N35">
+      <c r="O35">
         <v>-1350000000</v>
       </c>
-      <c r="O35">
+      <c r="P35">
         <v>-1428000000</v>
       </c>
-      <c r="P35">
+      <c r="Q35">
         <v>-1558000000</v>
       </c>
-      <c r="Q35">
+      <c r="R35">
         <v>-1520000000</v>
       </c>
-      <c r="R35">
+      <c r="S35">
         <v>-1368000000</v>
       </c>
-      <c r="S35">
+      <c r="T35">
         <v>-1326000000</v>
       </c>
-      <c r="T35">
+      <c r="U35">
         <v>-1021000000</v>
       </c>
-      <c r="U35">
+      <c r="V35">
         <v>-694000000</v>
       </c>
-      <c r="V35">
+      <c r="W35">
         <v>-1083000000</v>
       </c>
-      <c r="W35">
+      <c r="X35">
         <v>-1196000000</v>
       </c>
-      <c r="X35">
+      <c r="Y35">
         <v>-1166000000</v>
       </c>
-      <c r="Y35">
+      <c r="Z35">
         <v>-1363000000</v>
       </c>
-      <c r="Z35">
+      <c r="AA35">
         <v>-967000000</v>
       </c>
-      <c r="AA35">
+      <c r="AB35">
         <v>-1083000000</v>
       </c>
-      <c r="AB35">
+      <c r="AC35">
         <v>-1169000000</v>
       </c>
-      <c r="AC35">
+      <c r="AD35">
         <v>-1406000000</v>
       </c>
-      <c r="AD35">
+      <c r="AE35">
         <v>-1159000000</v>
       </c>
-      <c r="AE35">
+      <c r="AF35">
         <v>-809000000</v>
       </c>
-      <c r="AF35">
+      <c r="AG35">
         <v>-1126000000</v>
       </c>
-      <c r="AG35">
+      <c r="AH35">
         <v>-629000000</v>
       </c>
-      <c r="AH35">
+      <c r="AI35">
         <v>1204000000</v>
       </c>
-      <c r="AI35">
+      <c r="AJ35">
         <v>1434000000</v>
       </c>
-      <c r="AJ35">
+      <c r="AK35">
         <v>1483000000</v>
       </c>
-      <c r="AK35">
+      <c r="AL35">
         <v>1716000000</v>
       </c>
-      <c r="AL35">
+      <c r="AM35">
         <v>1496000000</v>
       </c>
-      <c r="AM35">
+      <c r="AN35">
         <v>1236000000</v>
       </c>
-      <c r="AN35">
+      <c r="AO35">
         <v>1423000000</v>
       </c>
     </row>
-    <row r="36" spans="1:40">
-      <c r="A36" t="s">
-        <v>35</v>
+    <row r="36" spans="1:41">
+      <c r="A36" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="B36">
+        <v>7995000000</v>
+      </c>
+      <c r="C36">
         <v>8225000000</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>8418000000</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>8577000000</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>8304000000</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>8656000000</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>8778000000</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>8502000000</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>8061000000</v>
       </c>
-      <c r="J36">
+      <c r="K36">
         <v>6850000000</v>
       </c>
-      <c r="K36">
+      <c r="L36">
         <v>6625000000</v>
       </c>
-      <c r="L36">
+      <c r="M36">
         <v>7469000000</v>
       </c>
-      <c r="M36">
+      <c r="N36">
         <v>7305000000</v>
       </c>
-      <c r="N36">
+      <c r="O36">
         <v>7337000000</v>
       </c>
-      <c r="O36">
+      <c r="P36">
         <v>7458000000</v>
       </c>
-      <c r="P36">
+      <c r="Q36">
         <v>7399000000</v>
       </c>
-      <c r="Q36">
+      <c r="R36">
         <v>6916000000</v>
       </c>
-      <c r="R36">
+      <c r="S36">
         <v>7031000000</v>
       </c>
-      <c r="S36">
+      <c r="T36">
         <v>7003000000</v>
       </c>
-      <c r="T36">
+      <c r="U36">
         <v>7054000000</v>
       </c>
-      <c r="U36">
+      <c r="V36">
         <v>6809000000</v>
       </c>
-      <c r="V36">
+      <c r="W36">
         <v>6991000000</v>
       </c>
-      <c r="W36">
+      <c r="X36">
         <v>6972000000</v>
       </c>
-      <c r="X36">
+      <c r="Y36">
         <v>6918000000</v>
       </c>
-      <c r="Y36">
+      <c r="Z36">
         <v>6649000000</v>
       </c>
-      <c r="Z36">
+      <c r="AA36">
         <v>6764000000</v>
       </c>
-      <c r="AA36">
+      <c r="AB36">
         <v>7021000000</v>
       </c>
-      <c r="AB36">
+      <c r="AC36">
         <v>7268000000</v>
       </c>
-      <c r="AC36">
+      <c r="AD36">
         <v>7156000000</v>
       </c>
-      <c r="AD36">
+      <c r="AE36">
         <v>6942000000</v>
       </c>
-      <c r="AE36">
+      <c r="AF36">
         <v>6996000000</v>
       </c>
-      <c r="AF36">
+      <c r="AG36">
         <v>7144000000</v>
       </c>
-      <c r="AG36">
+      <c r="AH36">
         <v>6167000000</v>
       </c>
-      <c r="AH36">
+      <c r="AI36">
         <v>4975000000</v>
       </c>
-      <c r="AI36">
+      <c r="AJ36">
         <v>5186000000</v>
       </c>
-      <c r="AJ36">
+      <c r="AK36">
         <v>5147000000</v>
       </c>
-      <c r="AK36">
+      <c r="AL36">
         <v>4707000000</v>
       </c>
-      <c r="AL36">
+      <c r="AM36">
         <v>5296000000</v>
       </c>
-      <c r="AM36">
+      <c r="AN36">
         <v>5529000000</v>
       </c>
-      <c r="AN36">
+      <c r="AO36">
         <v>5370000000</v>
       </c>
     </row>
-    <row r="37" spans="1:40">
-      <c r="A37" t="s">
-        <v>36</v>
+    <row r="37" spans="1:41">
+      <c r="A37" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="B37">
+        <v>8422000000</v>
+      </c>
+      <c r="C37">
         <v>8587000000</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>8729000000</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>9070000000</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>8574000000</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>8942000000</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>9084000000</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <v>8822000000</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <v>8364000000</v>
       </c>
-      <c r="J37">
+      <c r="K37">
         <v>8368000000</v>
       </c>
-      <c r="K37">
+      <c r="L37">
         <v>8073000000</v>
       </c>
-      <c r="L37">
+      <c r="M37">
         <v>8448000000</v>
       </c>
-      <c r="M37">
+      <c r="N37">
         <v>7747000000</v>
       </c>
-      <c r="N37">
+      <c r="O37">
         <v>7753000000</v>
       </c>
-      <c r="O37">
+      <c r="P37">
         <v>7992000000</v>
       </c>
-      <c r="P37">
+      <c r="Q37">
         <v>7890000000</v>
       </c>
-      <c r="Q37">
+      <c r="R37">
         <v>7455000000</v>
       </c>
-      <c r="R37">
+      <c r="S37">
         <v>7525000000</v>
       </c>
-      <c r="S37">
+      <c r="T37">
         <v>7487000000</v>
       </c>
-      <c r="T37">
+      <c r="U37">
         <v>7680000000</v>
       </c>
-      <c r="U37">
+      <c r="V37">
         <v>7425000000</v>
       </c>
-      <c r="V37">
+      <c r="W37">
         <v>7646000000</v>
       </c>
-      <c r="W37">
+      <c r="X37">
         <v>8023000000</v>
       </c>
-      <c r="X37">
+      <c r="Y37">
         <v>7753000000</v>
       </c>
-      <c r="Y37">
+      <c r="Z37">
         <v>7572000000</v>
       </c>
-      <c r="Z37">
+      <c r="AA37">
         <v>7648000000</v>
       </c>
-      <c r="AA37">
+      <c r="AB37">
         <v>7677000000</v>
       </c>
-      <c r="AB37">
+      <c r="AC37">
         <v>7903000000</v>
       </c>
-      <c r="AC37">
+      <c r="AD37">
         <v>7775000000</v>
       </c>
-      <c r="AD37">
+      <c r="AE37">
         <v>7585000000</v>
       </c>
-      <c r="AE37">
+      <c r="AF37">
         <v>7599000000</v>
       </c>
-      <c r="AF37">
+      <c r="AG37">
         <v>7731000000</v>
       </c>
-      <c r="AG37">
+      <c r="AH37">
         <v>6956000000</v>
       </c>
-      <c r="AH37">
+      <c r="AI37">
         <v>6406000000</v>
       </c>
-      <c r="AI37">
+      <c r="AJ37">
         <v>6555000000</v>
       </c>
-      <c r="AJ37">
+      <c r="AK37">
         <v>6312000000</v>
       </c>
-      <c r="AK37">
+      <c r="AL37">
         <v>5761000000</v>
       </c>
-      <c r="AL37">
+      <c r="AM37">
         <v>6475000000</v>
       </c>
-      <c r="AM37">
+      <c r="AN37">
         <v>6689000000</v>
       </c>
-      <c r="AN37">
+      <c r="AO37">
         <v>6479000000</v>
       </c>
     </row>
